--- a/GPRO_IED_A/obj/Release/Package/PackageTmp/ReportTemplates/using_tech_detail_template.xlsx
+++ b/GPRO_IED_A/obj/Release/Package/PackageTmp/ReportTemplates/using_tech_detail_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">BÁO  CÁO  TƯƠNG TÁC    PHẦN MỀM  QUẢN LÝ    QT/ CÔNG ĐOẠN  CHUẨN   TỪ  DATA </t>
   </si>
@@ -31,14 +31,31 @@
   </si>
   <si>
     <t>NGÀY TƯƠNG TÁC</t>
+  </si>
+  <si>
+    <t>ĐƠN VỊ</t>
+  </si>
+  <si>
+    <t>Từ ngày - đến ngày</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,20 +94,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,57 +430,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K3"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="85.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
